--- a/data_money.xlsx
+++ b/data_money.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C19895B-3780-450F-888D-7622945FAB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB69695-FAA2-4CC7-A693-0940C9057F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D928CE0-9C1A-414B-9B85-EFCEA0EF0B0B}"/>
   </bookViews>
@@ -2440,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5517B259-61F9-4634-8D5A-7C88EBB435E2}">
   <dimension ref="A1:AR617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="Q426" sqref="Q426"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58157,6 +58157,9 @@
       <c r="P419" s="3">
         <v>9.4969999999999999</v>
       </c>
+      <c r="Q419">
+        <v>0</v>
+      </c>
       <c r="R419">
         <v>0</v>
       </c>
@@ -59220,6 +59223,9 @@
       <c r="P427" s="3">
         <v>4.2999999999999997E-2</v>
       </c>
+      <c r="Q427">
+        <v>0</v>
+      </c>
       <c r="R427">
         <v>0</v>
       </c>
@@ -59750,6 +59756,9 @@
       <c r="P431" s="3">
         <v>2.89</v>
       </c>
+      <c r="Q431">
+        <v>0</v>
+      </c>
       <c r="R431">
         <v>0</v>
       </c>
@@ -63862,6 +63871,9 @@
       <c r="O462">
         <v>2.2636168739533824</v>
       </c>
+      <c r="Q462">
+        <v>0</v>
+      </c>
       <c r="R462">
         <v>0</v>
       </c>
@@ -65044,6 +65056,9 @@
       <c r="O471">
         <v>1.2446437893062485</v>
       </c>
+      <c r="Q471">
+        <v>0</v>
+      </c>
       <c r="R471">
         <v>0</v>
       </c>
@@ -65440,6 +65455,9 @@
       <c r="O474">
         <v>0.4163936982919349</v>
       </c>
+      <c r="Q474">
+        <v>0</v>
+      </c>
       <c r="R474">
         <v>0</v>
       </c>
@@ -65705,6 +65723,9 @@
       <c r="P476" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
+      <c r="Q476">
+        <v>0</v>
+      </c>
       <c r="R476">
         <v>0</v>
       </c>
@@ -66095,6 +66116,9 @@
       <c r="O479">
         <v>2.1298409217275438</v>
       </c>
+      <c r="Q479">
+        <v>0</v>
+      </c>
       <c r="R479">
         <v>0</v>
       </c>
@@ -66223,6 +66247,9 @@
       <c r="O480">
         <v>0.73540351654284619</v>
       </c>
+      <c r="Q480">
+        <v>0</v>
+      </c>
       <c r="R480">
         <v>0</v>
       </c>
@@ -66488,6 +66515,9 @@
       <c r="P482" s="3">
         <v>1.694</v>
       </c>
+      <c r="Q482">
+        <v>0</v>
+      </c>
       <c r="R482">
         <v>1</v>
       </c>
@@ -66616,6 +66646,9 @@
       <c r="O483">
         <v>0.80479731056108961</v>
       </c>
+      <c r="Q483">
+        <v>0</v>
+      </c>
       <c r="R483">
         <v>0</v>
       </c>
@@ -66881,6 +66914,9 @@
       <c r="P485" s="3">
         <v>0.158</v>
       </c>
+      <c r="Q485">
+        <v>0</v>
+      </c>
       <c r="R485">
         <v>0</v>
       </c>
@@ -67009,6 +67045,9 @@
       <c r="O486">
         <v>0.7047130592089611</v>
       </c>
+      <c r="Q486">
+        <v>0</v>
+      </c>
       <c r="R486">
         <v>0</v>
       </c>
@@ -67271,6 +67310,9 @@
       <c r="O488">
         <v>0.20935230008361713</v>
       </c>
+      <c r="Q488">
+        <v>0</v>
+      </c>
       <c r="R488">
         <v>0</v>
       </c>
@@ -67402,6 +67444,9 @@
       <c r="P489" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
+      <c r="Q489">
+        <v>0</v>
+      </c>
       <c r="R489">
         <v>0</v>
       </c>
@@ -67661,6 +67706,9 @@
       <c r="O491">
         <v>0.49639723553334297</v>
       </c>
+      <c r="Q491">
+        <v>0</v>
+      </c>
       <c r="R491">
         <v>0</v>
       </c>
@@ -67923,6 +67971,9 @@
       <c r="P493" s="3">
         <v>0.29699999999999999</v>
       </c>
+      <c r="Q493">
+        <v>0</v>
+      </c>
       <c r="R493">
         <v>0</v>
       </c>
@@ -68054,6 +68105,9 @@
       <c r="P494" s="3">
         <v>3.5569999999999999</v>
       </c>
+      <c r="Q494">
+        <v>0</v>
+      </c>
       <c r="R494">
         <v>0</v>
       </c>
@@ -68316,6 +68370,9 @@
       <c r="O496">
         <v>0.22575366666574861</v>
       </c>
+      <c r="Q496">
+        <v>0</v>
+      </c>
       <c r="R496">
         <v>0</v>
       </c>
@@ -68444,6 +68501,9 @@
       <c r="O497">
         <v>0.3261293576566025</v>
       </c>
+      <c r="Q497">
+        <v>0</v>
+      </c>
       <c r="R497">
         <v>0</v>
       </c>
@@ -68709,6 +68769,9 @@
       <c r="P499" s="3">
         <v>4.2060000000000004</v>
       </c>
+      <c r="Q499">
+        <v>0</v>
+      </c>
       <c r="R499">
         <v>0</v>
       </c>
@@ -68840,6 +68903,9 @@
       <c r="P500" s="3">
         <v>5.2389999999999999</v>
       </c>
+      <c r="Q500">
+        <v>0</v>
+      </c>
       <c r="R500">
         <v>0</v>
       </c>
@@ -68968,6 +69034,9 @@
       <c r="O501">
         <v>0</v>
       </c>
+      <c r="Q501">
+        <v>0</v>
+      </c>
       <c r="R501">
         <v>0</v>
       </c>
@@ -69096,6 +69165,9 @@
       <c r="O502">
         <v>0</v>
       </c>
+      <c r="Q502">
+        <v>0</v>
+      </c>
       <c r="R502">
         <v>0</v>
       </c>
@@ -69224,6 +69296,9 @@
       <c r="O503">
         <v>0</v>
       </c>
+      <c r="Q503">
+        <v>0</v>
+      </c>
       <c r="R503">
         <v>0</v>
       </c>
@@ -69355,6 +69430,9 @@
       <c r="P504" s="3">
         <v>2.8610000000000002</v>
       </c>
+      <c r="Q504">
+        <v>0</v>
+      </c>
       <c r="R504">
         <v>0</v>
       </c>
@@ -69486,6 +69564,9 @@
       <c r="P505" s="3">
         <v>1.79</v>
       </c>
+      <c r="Q505">
+        <v>0</v>
+      </c>
       <c r="R505">
         <v>0</v>
       </c>
@@ -69617,6 +69698,9 @@
       <c r="P506" s="3">
         <v>2.3820000000000001</v>
       </c>
+      <c r="Q506">
+        <v>0</v>
+      </c>
       <c r="R506">
         <v>0</v>
       </c>
@@ -69748,6 +69832,9 @@
       <c r="P507" s="3">
         <v>1.8979999999999999</v>
       </c>
+      <c r="Q507">
+        <v>0</v>
+      </c>
       <c r="R507">
         <v>0</v>
       </c>
@@ -69879,6 +69966,9 @@
       <c r="P508" s="3">
         <v>0.34599999999999997</v>
       </c>
+      <c r="Q508">
+        <v>0</v>
+      </c>
       <c r="R508">
         <v>0</v>
       </c>
@@ -70007,6 +70097,9 @@
       <c r="O509">
         <v>0</v>
       </c>
+      <c r="Q509">
+        <v>0</v>
+      </c>
       <c r="R509">
         <v>0</v>
       </c>
@@ -70138,6 +70231,9 @@
       <c r="P510" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
+      <c r="Q510">
+        <v>0</v>
+      </c>
       <c r="R510">
         <v>0</v>
       </c>
@@ -70269,6 +70365,9 @@
       <c r="P511" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
+      <c r="Q511">
+        <v>0</v>
+      </c>
       <c r="R511">
         <v>0</v>
       </c>
@@ -70397,6 +70496,9 @@
       <c r="O512">
         <v>0</v>
       </c>
+      <c r="Q512">
+        <v>0</v>
+      </c>
       <c r="R512">
         <v>0</v>
       </c>
@@ -70525,6 +70627,9 @@
       <c r="O513">
         <v>0</v>
       </c>
+      <c r="Q513">
+        <v>0</v>
+      </c>
       <c r="R513">
         <v>0</v>
       </c>
@@ -70656,6 +70761,9 @@
       <c r="P514" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="Q514">
+        <v>0</v>
+      </c>
       <c r="R514">
         <v>0</v>
       </c>
@@ -70787,6 +70895,9 @@
       <c r="P515" s="3">
         <v>0.82199999999999995</v>
       </c>
+      <c r="Q515">
+        <v>0</v>
+      </c>
       <c r="R515">
         <v>0</v>
       </c>
@@ -70918,6 +71029,9 @@
       <c r="P516" s="3">
         <v>0.67600000000000005</v>
       </c>
+      <c r="Q516">
+        <v>0</v>
+      </c>
       <c r="R516">
         <v>0</v>
       </c>
@@ -71046,6 +71160,9 @@
       <c r="O517">
         <v>0</v>
       </c>
+      <c r="Q517">
+        <v>0</v>
+      </c>
       <c r="R517">
         <v>0</v>
       </c>
@@ -71174,6 +71291,9 @@
       <c r="O518">
         <v>0</v>
       </c>
+      <c r="Q518">
+        <v>0</v>
+      </c>
       <c r="R518">
         <v>0</v>
       </c>
@@ -71302,6 +71422,9 @@
       <c r="O519">
         <v>0</v>
       </c>
+      <c r="Q519">
+        <v>0</v>
+      </c>
       <c r="R519">
         <v>0</v>
       </c>
@@ -71430,6 +71553,9 @@
       <c r="O520">
         <v>0</v>
       </c>
+      <c r="Q520">
+        <v>0</v>
+      </c>
       <c r="R520">
         <v>0</v>
       </c>
@@ -71561,6 +71687,9 @@
       <c r="P521" s="3">
         <v>0.46600000000000003</v>
       </c>
+      <c r="Q521">
+        <v>0</v>
+      </c>
       <c r="R521">
         <v>0</v>
       </c>
@@ -71689,6 +71818,9 @@
       <c r="O522">
         <v>0</v>
       </c>
+      <c r="Q522">
+        <v>0</v>
+      </c>
       <c r="R522">
         <v>0</v>
       </c>
@@ -71817,6 +71949,9 @@
       <c r="O523">
         <v>0</v>
       </c>
+      <c r="Q523">
+        <v>0</v>
+      </c>
       <c r="R523">
         <v>0</v>
       </c>
@@ -71945,6 +72080,9 @@
       <c r="O524">
         <v>0</v>
       </c>
+      <c r="Q524">
+        <v>0</v>
+      </c>
       <c r="R524">
         <v>0</v>
       </c>
@@ -72073,6 +72211,9 @@
       <c r="O525">
         <v>0</v>
       </c>
+      <c r="Q525">
+        <v>0</v>
+      </c>
       <c r="R525">
         <v>0</v>
       </c>
@@ -72201,6 +72342,9 @@
       <c r="O526">
         <v>0</v>
       </c>
+      <c r="Q526">
+        <v>0</v>
+      </c>
       <c r="R526">
         <v>0</v>
       </c>
@@ -72329,6 +72473,9 @@
       <c r="O527">
         <v>0</v>
       </c>
+      <c r="Q527">
+        <v>0</v>
+      </c>
       <c r="R527">
         <v>0</v>
       </c>
@@ -72457,6 +72604,9 @@
       <c r="O528">
         <v>0</v>
       </c>
+      <c r="Q528">
+        <v>0</v>
+      </c>
       <c r="R528">
         <v>0</v>
       </c>
@@ -72588,6 +72738,9 @@
       <c r="P529" s="3">
         <v>5.2949999999999999</v>
       </c>
+      <c r="Q529">
+        <v>0</v>
+      </c>
       <c r="R529">
         <v>0</v>
       </c>
@@ -72719,6 +72872,9 @@
       <c r="P530" s="3">
         <v>18.254999999999999</v>
       </c>
+      <c r="Q530">
+        <v>0</v>
+      </c>
       <c r="R530">
         <v>0</v>
       </c>
@@ -72847,6 +73003,9 @@
       <c r="O531">
         <v>0</v>
       </c>
+      <c r="Q531">
+        <v>0</v>
+      </c>
       <c r="R531">
         <v>0</v>
       </c>
@@ -72975,6 +73134,9 @@
       <c r="O532">
         <v>0</v>
       </c>
+      <c r="Q532">
+        <v>0</v>
+      </c>
       <c r="R532">
         <v>0</v>
       </c>
@@ -73103,6 +73265,9 @@
       <c r="O533">
         <v>0</v>
       </c>
+      <c r="Q533">
+        <v>0</v>
+      </c>
       <c r="R533">
         <v>0</v>
       </c>
@@ -73231,6 +73396,9 @@
       <c r="O534">
         <v>0</v>
       </c>
+      <c r="Q534">
+        <v>0</v>
+      </c>
       <c r="R534">
         <v>0</v>
       </c>
@@ -73362,6 +73530,9 @@
       <c r="P535" s="3">
         <v>7.8E-2</v>
       </c>
+      <c r="Q535">
+        <v>0</v>
+      </c>
       <c r="R535">
         <v>0</v>
       </c>
@@ -73490,6 +73661,9 @@
       <c r="O536">
         <v>0</v>
       </c>
+      <c r="Q536">
+        <v>0</v>
+      </c>
       <c r="R536">
         <v>0</v>
       </c>
@@ -73618,6 +73792,9 @@
       <c r="O537">
         <v>0</v>
       </c>
+      <c r="Q537">
+        <v>0</v>
+      </c>
       <c r="R537">
         <v>0</v>
       </c>
@@ -73749,6 +73926,9 @@
       <c r="P538" s="3">
         <v>0.57199999999999995</v>
       </c>
+      <c r="Q538">
+        <v>0</v>
+      </c>
       <c r="R538">
         <v>0</v>
       </c>
@@ -73877,6 +74057,9 @@
       <c r="O539">
         <v>0</v>
       </c>
+      <c r="Q539">
+        <v>0</v>
+      </c>
       <c r="R539">
         <v>0</v>
       </c>
@@ -74005,6 +74188,9 @@
       <c r="O540">
         <v>0</v>
       </c>
+      <c r="Q540">
+        <v>0</v>
+      </c>
       <c r="R540">
         <v>0</v>
       </c>
@@ -74133,6 +74319,9 @@
       <c r="O541">
         <v>0</v>
       </c>
+      <c r="Q541">
+        <v>0</v>
+      </c>
       <c r="R541">
         <v>0</v>
       </c>
@@ -74264,6 +74453,9 @@
       <c r="P542" s="3">
         <v>0.10199999999999999</v>
       </c>
+      <c r="Q542">
+        <v>0</v>
+      </c>
       <c r="R542">
         <v>0</v>
       </c>
@@ -74395,6 +74587,9 @@
       <c r="P543" s="3">
         <v>6.92</v>
       </c>
+      <c r="Q543">
+        <v>0</v>
+      </c>
       <c r="R543">
         <v>0</v>
       </c>
@@ -74526,6 +74721,9 @@
       <c r="P544" s="3">
         <v>2.7109999999999999</v>
       </c>
+      <c r="Q544">
+        <v>0</v>
+      </c>
       <c r="R544">
         <v>0</v>
       </c>
@@ -74657,6 +74855,9 @@
       <c r="P545" s="3">
         <v>1.9450000000000001</v>
       </c>
+      <c r="Q545">
+        <v>0</v>
+      </c>
       <c r="R545">
         <v>0</v>
       </c>
@@ -74788,6 +74989,9 @@
       <c r="P546" s="3">
         <v>5.0620000000000003</v>
       </c>
+      <c r="Q546">
+        <v>0</v>
+      </c>
       <c r="R546">
         <v>0</v>
       </c>
@@ -74916,6 +75120,9 @@
       <c r="O547">
         <v>0</v>
       </c>
+      <c r="Q547">
+        <v>0</v>
+      </c>
       <c r="R547">
         <v>0</v>
       </c>
@@ -75047,6 +75254,9 @@
       <c r="P548" s="3">
         <v>3.3220000000000001</v>
       </c>
+      <c r="Q548">
+        <v>0</v>
+      </c>
       <c r="R548">
         <v>0</v>
       </c>
@@ -75175,6 +75385,9 @@
       <c r="O549">
         <v>0</v>
       </c>
+      <c r="Q549">
+        <v>0</v>
+      </c>
       <c r="R549">
         <v>0</v>
       </c>
@@ -75306,6 +75519,9 @@
       <c r="P550" s="3">
         <v>0.24199999999999999</v>
       </c>
+      <c r="Q550">
+        <v>0</v>
+      </c>
       <c r="R550">
         <v>0</v>
       </c>
@@ -75437,6 +75653,9 @@
       <c r="P551" s="3">
         <v>6.6420000000000003</v>
       </c>
+      <c r="Q551">
+        <v>0</v>
+      </c>
       <c r="R551">
         <v>0</v>
       </c>
@@ -75568,6 +75787,9 @@
       <c r="P552" s="3">
         <v>0.47899999999999998</v>
       </c>
+      <c r="Q552">
+        <v>0</v>
+      </c>
       <c r="R552">
         <v>0</v>
       </c>
@@ -75696,6 +75918,9 @@
       <c r="O553">
         <v>0</v>
       </c>
+      <c r="Q553">
+        <v>0</v>
+      </c>
       <c r="R553">
         <v>0</v>
       </c>
@@ -75824,6 +76049,9 @@
       <c r="O554">
         <v>0</v>
       </c>
+      <c r="Q554">
+        <v>0</v>
+      </c>
       <c r="R554">
         <v>0</v>
       </c>
@@ -75955,6 +76183,9 @@
       <c r="P555" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
+      <c r="Q555">
+        <v>0</v>
+      </c>
       <c r="R555">
         <v>0</v>
       </c>
@@ -76086,6 +76317,9 @@
       <c r="P556" s="3">
         <v>3.9119999999999999</v>
       </c>
+      <c r="Q556">
+        <v>0</v>
+      </c>
       <c r="R556">
         <v>0</v>
       </c>
@@ -76214,6 +76448,9 @@
       <c r="O557">
         <v>0</v>
       </c>
+      <c r="Q557">
+        <v>0</v>
+      </c>
       <c r="R557">
         <v>0</v>
       </c>
@@ -76342,6 +76579,9 @@
       <c r="O558">
         <v>0</v>
       </c>
+      <c r="Q558">
+        <v>0</v>
+      </c>
       <c r="R558">
         <v>0</v>
       </c>
@@ -76473,6 +76713,9 @@
       <c r="P559" s="3">
         <v>3.1480000000000001</v>
       </c>
+      <c r="Q559">
+        <v>0</v>
+      </c>
       <c r="R559">
         <v>0</v>
       </c>
@@ -76601,6 +76844,9 @@
       <c r="O560">
         <v>0</v>
       </c>
+      <c r="Q560">
+        <v>0</v>
+      </c>
       <c r="R560">
         <v>0</v>
       </c>
@@ -76732,6 +76978,9 @@
       <c r="P561" s="3">
         <v>1.6339999999999999</v>
       </c>
+      <c r="Q561">
+        <v>0</v>
+      </c>
       <c r="R561">
         <v>0</v>
       </c>
@@ -76860,6 +77109,9 @@
       <c r="O562">
         <v>0</v>
       </c>
+      <c r="Q562">
+        <v>0</v>
+      </c>
       <c r="R562">
         <v>0</v>
       </c>
@@ -76988,6 +77240,9 @@
       <c r="O563">
         <v>0</v>
       </c>
+      <c r="Q563">
+        <v>0</v>
+      </c>
       <c r="R563">
         <v>0</v>
       </c>
@@ -77119,6 +77374,9 @@
       <c r="P564" s="3">
         <v>0.04</v>
       </c>
+      <c r="Q564">
+        <v>0</v>
+      </c>
       <c r="R564">
         <v>0</v>
       </c>
@@ -77250,6 +77508,9 @@
       <c r="P565" s="3">
         <v>7.4509999999999996</v>
       </c>
+      <c r="Q565">
+        <v>0</v>
+      </c>
       <c r="R565">
         <v>1</v>
       </c>
@@ -77381,6 +77642,9 @@
       <c r="P566" s="3">
         <v>11.948</v>
       </c>
+      <c r="Q566">
+        <v>0</v>
+      </c>
       <c r="R566">
         <v>1</v>
       </c>
@@ -77509,6 +77773,9 @@
       <c r="O567">
         <v>0</v>
       </c>
+      <c r="Q567">
+        <v>0</v>
+      </c>
       <c r="R567">
         <v>0</v>
       </c>
@@ -77640,6 +77907,9 @@
       <c r="P568" s="3">
         <v>0.17599999999999999</v>
       </c>
+      <c r="Q568">
+        <v>0</v>
+      </c>
       <c r="R568">
         <v>0</v>
       </c>
@@ -77768,6 +78038,9 @@
       <c r="O569">
         <v>0</v>
       </c>
+      <c r="Q569">
+        <v>0</v>
+      </c>
       <c r="R569">
         <v>0</v>
       </c>
@@ -77896,6 +78169,9 @@
       <c r="O570">
         <v>0</v>
       </c>
+      <c r="Q570">
+        <v>0</v>
+      </c>
       <c r="R570">
         <v>0</v>
       </c>
@@ -78024,6 +78300,9 @@
       <c r="O571">
         <v>0</v>
       </c>
+      <c r="Q571">
+        <v>0</v>
+      </c>
       <c r="R571">
         <v>0</v>
       </c>
@@ -78152,6 +78431,9 @@
       <c r="O572">
         <v>0</v>
       </c>
+      <c r="Q572">
+        <v>0</v>
+      </c>
       <c r="R572">
         <v>0</v>
       </c>
@@ -78280,6 +78562,9 @@
       <c r="O573">
         <v>0</v>
       </c>
+      <c r="Q573">
+        <v>0</v>
+      </c>
       <c r="R573">
         <v>0</v>
       </c>
@@ -78411,6 +78696,9 @@
       <c r="P574" s="3">
         <v>2.2160000000000002</v>
       </c>
+      <c r="Q574">
+        <v>0</v>
+      </c>
       <c r="R574">
         <v>0</v>
       </c>
@@ -78539,6 +78827,9 @@
       <c r="O575">
         <v>0</v>
       </c>
+      <c r="Q575">
+        <v>0</v>
+      </c>
       <c r="R575">
         <v>0</v>
       </c>
@@ -78670,6 +78961,9 @@
       <c r="P576" s="3">
         <v>0.153</v>
       </c>
+      <c r="Q576">
+        <v>0</v>
+      </c>
       <c r="R576">
         <v>0</v>
       </c>
@@ -78801,6 +79095,9 @@
       <c r="P577" s="3">
         <v>2.266</v>
       </c>
+      <c r="Q577">
+        <v>0</v>
+      </c>
       <c r="R577">
         <v>0</v>
       </c>
@@ -78929,6 +79226,9 @@
       <c r="O578">
         <v>0</v>
       </c>
+      <c r="Q578">
+        <v>0</v>
+      </c>
       <c r="R578">
         <v>0</v>
       </c>
@@ -79060,6 +79360,9 @@
       <c r="P579" s="3">
         <v>0.69899999999999995</v>
       </c>
+      <c r="Q579">
+        <v>0</v>
+      </c>
       <c r="R579">
         <v>0</v>
       </c>
@@ -79191,6 +79494,9 @@
       <c r="P580" s="3">
         <v>2.823</v>
       </c>
+      <c r="Q580">
+        <v>0</v>
+      </c>
       <c r="R580">
         <v>0</v>
       </c>
@@ -79322,6 +79628,9 @@
       <c r="P581" s="3">
         <v>10.882999999999999</v>
       </c>
+      <c r="Q581">
+        <v>0</v>
+      </c>
       <c r="R581">
         <v>0</v>
       </c>
@@ -79453,6 +79762,9 @@
       <c r="P582" s="3">
         <v>2.8159999999999998</v>
       </c>
+      <c r="Q582">
+        <v>0</v>
+      </c>
       <c r="R582">
         <v>0</v>
       </c>
@@ -79584,6 +79896,9 @@
       <c r="P583" s="3">
         <v>1.0009999999999999</v>
       </c>
+      <c r="Q583">
+        <v>0</v>
+      </c>
       <c r="R583">
         <v>0</v>
       </c>
@@ -79712,6 +80027,9 @@
       <c r="O584">
         <v>0</v>
       </c>
+      <c r="Q584">
+        <v>0</v>
+      </c>
       <c r="R584">
         <v>0</v>
       </c>
@@ -79840,6 +80158,9 @@
       <c r="O585">
         <v>0</v>
       </c>
+      <c r="Q585">
+        <v>0</v>
+      </c>
       <c r="R585">
         <v>0</v>
       </c>
@@ -79968,6 +80289,9 @@
       <c r="O586">
         <v>0</v>
       </c>
+      <c r="Q586">
+        <v>0</v>
+      </c>
       <c r="R586">
         <v>0</v>
       </c>
@@ -80099,6 +80423,9 @@
       <c r="P587" s="3">
         <v>11.961</v>
       </c>
+      <c r="Q587">
+        <v>0</v>
+      </c>
       <c r="R587">
         <v>0</v>
       </c>
@@ -80227,6 +80554,9 @@
       <c r="O588">
         <v>0</v>
       </c>
+      <c r="Q588">
+        <v>0</v>
+      </c>
       <c r="R588">
         <v>0</v>
       </c>
@@ -80358,6 +80688,9 @@
       <c r="P589" s="3">
         <v>0.39200000000000002</v>
       </c>
+      <c r="Q589">
+        <v>0</v>
+      </c>
       <c r="R589">
         <v>0</v>
       </c>
@@ -80489,6 +80822,9 @@
       <c r="P590" s="3">
         <v>8.1750000000000007</v>
       </c>
+      <c r="Q590">
+        <v>0</v>
+      </c>
       <c r="R590">
         <v>0</v>
       </c>
@@ -80620,6 +80956,9 @@
       <c r="P591" s="3">
         <v>6.8040000000000003</v>
       </c>
+      <c r="Q591">
+        <v>0</v>
+      </c>
       <c r="R591">
         <v>0</v>
       </c>
@@ -80751,6 +81090,9 @@
       <c r="P592" s="3">
         <v>3.9E-2</v>
       </c>
+      <c r="Q592">
+        <v>0</v>
+      </c>
       <c r="R592">
         <v>0</v>
       </c>
@@ -80882,6 +81224,9 @@
       <c r="P593" s="3">
         <v>1.5069999999999999</v>
       </c>
+      <c r="Q593">
+        <v>0</v>
+      </c>
       <c r="R593">
         <v>0</v>
       </c>
@@ -81010,6 +81355,9 @@
       <c r="O594">
         <v>0</v>
       </c>
+      <c r="Q594">
+        <v>0</v>
+      </c>
       <c r="R594">
         <v>0</v>
       </c>
@@ -81138,6 +81486,9 @@
       <c r="O595">
         <v>0</v>
       </c>
+      <c r="Q595">
+        <v>0</v>
+      </c>
       <c r="R595">
         <v>0</v>
       </c>
@@ -81269,6 +81620,9 @@
       <c r="P596" s="3">
         <v>0.34300000000000003</v>
       </c>
+      <c r="Q596">
+        <v>0</v>
+      </c>
       <c r="R596">
         <v>0</v>
       </c>
@@ -81397,6 +81751,9 @@
       <c r="O597">
         <v>0</v>
       </c>
+      <c r="Q597">
+        <v>0</v>
+      </c>
       <c r="R597">
         <v>0</v>
       </c>
@@ -81659,6 +82016,9 @@
       <c r="P599" s="3">
         <v>1.6E-2</v>
       </c>
+      <c r="Q599">
+        <v>0</v>
+      </c>
       <c r="R599">
         <v>0</v>
       </c>
@@ -81790,6 +82150,9 @@
       <c r="P600" s="3">
         <v>15.042</v>
       </c>
+      <c r="Q600">
+        <v>0</v>
+      </c>
       <c r="R600">
         <v>0</v>
       </c>
@@ -81918,6 +82281,9 @@
       <c r="O601">
         <v>0.28905094603696202</v>
       </c>
+      <c r="Q601">
+        <v>0</v>
+      </c>
       <c r="R601">
         <v>0</v>
       </c>
@@ -82049,6 +82415,9 @@
       <c r="P602" s="3">
         <v>9.8770000000000007</v>
       </c>
+      <c r="Q602">
+        <v>0</v>
+      </c>
       <c r="R602">
         <v>0</v>
       </c>
@@ -82180,6 +82549,9 @@
       <c r="P603" s="3">
         <v>0.77100000000000002</v>
       </c>
+      <c r="Q603">
+        <v>0</v>
+      </c>
       <c r="R603">
         <v>0</v>
       </c>
@@ -82442,6 +82814,9 @@
       <c r="O605">
         <v>0.33501522111677712</v>
       </c>
+      <c r="Q605">
+        <v>0</v>
+      </c>
       <c r="R605">
         <v>0</v>
       </c>
@@ -82573,6 +82948,9 @@
       <c r="P606" s="3">
         <v>0.316</v>
       </c>
+      <c r="Q606">
+        <v>0</v>
+      </c>
       <c r="R606">
         <v>0</v>
       </c>
@@ -82704,6 +83082,9 @@
       <c r="P607" s="3">
         <v>0.01</v>
       </c>
+      <c r="Q607">
+        <v>0</v>
+      </c>
       <c r="R607">
         <v>0</v>
       </c>
@@ -82832,6 +83213,9 @@
       <c r="O608">
         <v>0.10657361519618508</v>
       </c>
+      <c r="Q608">
+        <v>0</v>
+      </c>
       <c r="R608">
         <v>0</v>
       </c>
@@ -82963,6 +83347,9 @@
       <c r="P609" s="3">
         <v>1.526</v>
       </c>
+      <c r="Q609">
+        <v>0</v>
+      </c>
       <c r="R609">
         <v>0</v>
       </c>
@@ -83228,6 +83615,9 @@
       <c r="P611" s="3">
         <v>6.343</v>
       </c>
+      <c r="Q611">
+        <v>0</v>
+      </c>
       <c r="R611">
         <v>0</v>
       </c>
@@ -83356,6 +83746,9 @@
       <c r="O612">
         <v>0.32505142846422758</v>
       </c>
+      <c r="Q612">
+        <v>0</v>
+      </c>
       <c r="R612">
         <v>0</v>
       </c>
@@ -84106,6 +84499,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AR617" xr:uid="{5517B259-61F9-4634-8D5A-7C88EBB435E2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
